--- a/data/trans_camb/P23_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P23_R2-Habitat-trans_camb.xlsx
@@ -685,47 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-11,78; -0,85</t>
+          <t>-11,36; -0,98</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-11,56; -1,22</t>
+          <t>-11,23; -0,73</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-20,76; -9,74</t>
+          <t>-21,13; -10,38</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-4,57; 4,89</t>
+          <t>-4,81; 4,3</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-2,28; 7,04</t>
+          <t>-2,54; 6,16</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-8,84; -1,16</t>
+          <t>-9,19; -1,0</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-6,58; 0,45</t>
+          <t>-6,71; 0,18</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-5,54; 1,72</t>
+          <t>-5,53; 1,67</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-13,69; -6,88</t>
+          <t>-13,69; -7,31</t>
         </is>
       </c>
     </row>
@@ -791,47 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-25,14; -1,86</t>
+          <t>-24,64; -2,51</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-24,82; -3,01</t>
+          <t>-24,82; -1,95</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-45,06; -23,93</t>
+          <t>-45,5; -25,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-18,12; 24,1</t>
+          <t>-19,29; 20,34</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-9,42; 33,78</t>
+          <t>-10,4; 28,56</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-34,93; -5,47</t>
+          <t>-36,21; -5,04</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-18,88; 1,41</t>
+          <t>-19,42; 0,74</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-15,65; 5,55</t>
+          <t>-15,86; 5,12</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-39,21; -21,79</t>
+          <t>-39,4; -23,01</t>
         </is>
       </c>
     </row>
@@ -901,47 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-7,58; 1,48</t>
+          <t>-7,5; 1,98</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-11,68; -3,02</t>
+          <t>-11,8; -2,49</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-30,51; -13,18</t>
+          <t>-30,22; -13,45</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>0,96; 9,23</t>
+          <t>1,21; 9,24</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 7,16</t>
+          <t>-0,53; 7,26</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-7,57; -0,41</t>
+          <t>-7,76; -0,42</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-1,79; 4,45</t>
+          <t>-1,97; 4,34</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-5,25; 0,65</t>
+          <t>-4,85; 1,07</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-18,45; -8,17</t>
+          <t>-18,34; -8,52</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-17,84; 4,03</t>
+          <t>-17,38; 5,19</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-27,55; -8,25</t>
+          <t>-27,67; -6,3</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-73,5; -33,82</t>
+          <t>-72,73; -34,14</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>3,85; 43,23</t>
+          <t>4,42; 43,85</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-3,44; 34,21</t>
+          <t>-2,18; 34,81</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-30,22; -1,99</t>
+          <t>-30,88; -2,0</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-5,31; 14,91</t>
+          <t>-5,8; 14,29</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-15,71; 1,99</t>
+          <t>-14,9; 3,61</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-59,66; -27,06</t>
+          <t>-56,28; -27,66</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-4,4; 5,99</t>
+          <t>-4,39; 6,06</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-1,38; 9,81</t>
+          <t>-0,72; 9,9</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-13,07; -1,85</t>
+          <t>-13,14; -1,55</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>0,3; 9,44</t>
+          <t>-0,06; 9,41</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>0,06; 9,36</t>
+          <t>0,29; 9,72</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-16,27; -0,38</t>
+          <t>-16,42; -0,23</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-0,66; 6,5</t>
+          <t>-0,69; 6,33</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>1,28; 8,0</t>
+          <t>1,0; 8,14</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-17,18; -3,67</t>
+          <t>-16,23; -3,69</t>
         </is>
       </c>
     </row>
@@ -1223,47 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-11,3; 17,74</t>
+          <t>-11,13; 18,01</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-3,55; 30,19</t>
+          <t>-1,77; 29,94</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-33,67; -5,62</t>
+          <t>-34,06; -3,93</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>1,19; 43,72</t>
+          <t>-0,44; 44,3</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>1,09; 44,64</t>
+          <t>1,08; 44,51</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-64,11; -2,39</t>
+          <t>-62,7; -1,81</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-2,22; 23,26</t>
+          <t>-2,12; 22,83</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,15; 28,98</t>
+          <t>3,3; 29,23</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-55,74; -12,67</t>
+          <t>-52,86; -12,85</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 0,81</t>
+          <t>-7,97; 0,87</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-13,97; -5,21</t>
+          <t>-14,05; -5,24</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-20,63; -11,72</t>
+          <t>-20,29; -11,38</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-4,21; 3,61</t>
+          <t>-3,64; 4,0</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-6,94; 0,96</t>
+          <t>-6,79; 1,06</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-13,89; -6,4</t>
+          <t>-14,26; -6,23</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-4,84; 1,01</t>
+          <t>-4,87; 1,24</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-8,76; -2,98</t>
+          <t>-8,91; -2,89</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-16,19; -10,09</t>
+          <t>-15,97; -10,23</t>
         </is>
       </c>
     </row>
@@ -1439,47 +1439,47 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-20,3; 2,1</t>
+          <t>-19,37; 2,34</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-33,19; -13,25</t>
+          <t>-33,54; -13,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-49,37; -31,34</t>
+          <t>-48,62; -30,46</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-14,2; 13,89</t>
+          <t>-12,51; 15,72</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-23,54; 3,08</t>
+          <t>-22,71; 4,1</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-49,04; -24,74</t>
+          <t>-49,19; -24,76</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-14,14; 3,11</t>
+          <t>-13,94; 3,89</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-25,4; -9,28</t>
+          <t>-25,78; -9,21</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-47,22; -31,52</t>
+          <t>-46,81; -31,63</t>
         </is>
       </c>
     </row>
@@ -1549,47 +1549,47 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>-5,54; -0,83</t>
+          <t>-5,24; -0,41</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>-7,56; -2,86</t>
+          <t>-7,42; -2,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>-20,85; -12,74</t>
+          <t>-20,87; -12,54</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>0,08; 4,53</t>
+          <t>0,31; 4,62</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>-0,5; 3,66</t>
+          <t>-0,55; 3,6</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>-9,97; -4,36</t>
+          <t>-10,15; -4,56</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>-1,9; 1,31</t>
+          <t>-2,01; 1,38</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
         <is>
-          <t>-3,48; -0,19</t>
+          <t>-3,55; -0,25</t>
         </is>
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>-14,26; -9,3</t>
+          <t>-14,02; -9,13</t>
         </is>
       </c>
     </row>
@@ -1655,47 +1655,47 @@
       </c>
       <c r="C23" s="2" t="inlineStr">
         <is>
-          <t>-13,46; -2,18</t>
+          <t>-12,72; -1,18</t>
         </is>
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>-18,49; -7,39</t>
+          <t>-17,95; -7,1</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>-51,93; -32,69</t>
+          <t>-52,11; -32,38</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>0,3; 18,97</t>
+          <t>1,15; 19,73</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
         <is>
-          <t>-1,88; 15,9</t>
+          <t>-1,87; 15,5</t>
         </is>
       </c>
       <c r="H23" s="2" t="inlineStr">
         <is>
-          <t>-40,34; -19,15</t>
+          <t>-40,53; -19,35</t>
         </is>
       </c>
       <c r="I23" s="2" t="inlineStr">
         <is>
-          <t>-5,79; 4,12</t>
+          <t>-6,13; 4,46</t>
         </is>
       </c>
       <c r="J23" s="2" t="inlineStr">
         <is>
-          <t>-10,52; -0,56</t>
+          <t>-10,88; -0,86</t>
         </is>
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>-44,24; -29,48</t>
+          <t>-43,5; -29,02</t>
         </is>
       </c>
     </row>

--- a/data/trans_camb/P23_R2-Habitat-trans_camb.xlsx
+++ b/data/trans_camb/P23_R2-Habitat-trans_camb.xlsx
@@ -531,7 +531,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que fuma tabaco diariamente (2007/2011/2016/2023)</t>
+          <t>Población que fuma tabaco actualmente, de forma diaria o puntual</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
